--- a/arxiv_results.xlsx
+++ b/arxiv_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,7 +833,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -842,20 +842,156 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Quaff: Quantized Parameter-Efficient Fine-Tuning under Outlier Spatial Stability Hypothesis</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hong Huang, Dapeng Wu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2505.14742v2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Large language models (LLMs) have made exciting achievements across various
+domains, yet their deployment on resource-constrained personal devices remains
+hindered by the prohibitive computational and memory demands of task-specific
+fine-tuning. While quantization offers a pathway to efficiency, existing
+methods struggle to balance performance and overhead, either incurring high
+computational/memory costs or failing to address activation outliers, a
+critical bottleneck in quantized fine-tuning. To address these challenges, we
+propose the Outlier Spatial Stability Hypothesis (OSSH): During fine-tuning,
+certain activation outlier channels retain stable spatial positions across
+training iterations. Building on OSSH, we propose Quaff, a Quantized
+parameter-efficient fine-tuning framework for LLMs, optimizing low-precision
+activation representations through targeted momentum scaling. Quaff dynamically
+suppresses outliers exclusively in invariant channels using lightweight
+operations, eliminating full-precision weight storage and global rescaling
+while reducing quantization errors. Extensive experiments across ten benchmarks
+validate OSSH and demonstrate Quaff's efficacy. Specifically, on the GPQA
+reasoning benchmark, Quaff achieves a 1.73x latency reduction and 30% memory
+savings over full-precision fine-tuning while improving accuracy by 0.6% on the
+Phi-3 model, reconciling the triple trade-off between efficiency, performance,
+and deployability. By enabling consumer-grade GPU fine-tuning (e.g., RTX 2080
+Super) without sacrificing model utility, Quaff democratizes personalized LLM
+deployment. The code is available at https://github.com/Little0o0/Quaff.git.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ACL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Assigning Distinct Roles to Quantized and Low-Rank Matrices Toward Optimal Weight Decomposition</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yoonjun Cho, Soeun Kim, Dongjae Jeon, Kyelim Lee, Beomsoo Lee, Albert No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2506.02077v1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Decomposing weight matrices into quantization and low-rank components
+($\mathbf{W} \approx \mathbf{Q} + \mathbf{L}\mathbf{R}$) is a widely used
+technique for compressing large language models (LLMs). Existing joint
+optimization methods iteratively alternate between quantization and low-rank
+approximation. However, these methods tend to prioritize one component at the
+expense of the other, resulting in suboptimal decompositions that fail to
+leverage each component's unique strengths. In this work, we introduce
+Outlier-Driven Low-Rank Initialization (ODLRI), which assigns low-rank
+components the specific role of capturing activation-sensitive weights. This
+structured decomposition mitigates outliers' negative impact on quantization,
+enabling more effective balance between quantization and low-rank
+approximation. Experiments on Llama2 (7B, 13B, 70B), Llama3-8B, and Mistral-7B
+demonstrate that incorporating ODLRI into the joint optimization framework
+consistently reduces activation-aware error, minimizes quantization scale, and
+improves perplexity and zero-shot accuracy in low-bit settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ACL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ClusComp: A Simple Paradigm for Model Compression and Efficient Finetuning</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Baohao Liao, Christian Herold, Seyyed Hadi Hashemi, Stefan Vasilev, Shahram Khadivi, Christof Monz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2503.13089v2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>As large language models (LLMs) scale, model compression is crucial for edge
+deployment and accessibility. Weight-only quantization reduces model size but
+suffers from performance degradation at lower bit widths. Moreover, standard
+finetuning is incompatible with quantized models, and alternative methods often
+fall short of full finetuning. In this paper, we propose ClusComp, a simple yet
+effective compression paradigm that clusters weight matrices into codebooks and
+finetunes them block-by-block. ClusComp (1) achieves superior performance in
+2-4 bit quantization, (2) pushes compression to 1-bit while outperforming
+ultra-low-bit methods with minimal finetuning, and (3) enables efficient
+finetuning, even surpassing existing quantization-based approaches and rivaling
+full FP16 finetuning. Notably, ClusComp supports compression and finetuning of
+70B LLMs on a single A6000-48GB GPU.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ACL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>A Comprehensive Evaluation of Quantization Strategies for Large Language Models</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Renren Jin, Jiangcun Du, Wuwei Huang, Wei Liu, Jian Luan, Bin Wang, Deyi Xiong</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2402.16775v2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Increasing the number of parameters in large language models (LLMs) usually
 improves performance in downstream tasks but raises compute and memory costs,
@@ -881,31 +1017,31 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>IntactKV: Improving Large Language Model Quantization by Keeping Pivot Tokens Intact</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Ruikang Liu, Haoli Bai, Haokun Lin, Yuening Li, Han Gao, Zhengzhuo Xu, Lu Hou, Jun Yao, Chun Yuan</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2403.01241v2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Large language models (LLMs) excel in natural language processing but demand
 intensive computation. To mitigate this, various quantization methods have been
@@ -926,31 +1062,31 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>LRQ: Optimizing Post-Training Quantization for Large Language Models by Learning Low-Rank Weight-Scaling Matrices</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Jung Hyun Lee, Jeonghoon Kim, June Yong Yang, Se Jung Kwon, Eunho Yang, Kang Min Yoo, Dongsoo Lee</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.11534v2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>With the commercialization of large language models (LLMs), weight-activation
 quantization has emerged to compress and accelerate LLMs, achieving high
@@ -972,31 +1108,31 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>When Quantization Affects Confidence of Large Language Models?</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Irina Proskurina, Luc Brun, Guillaume Metzler, Julien Velcin</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2405.00632v1</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Recent studies introduced effective compression techniques for Large Language
 Models (LLMs) via post-training quantization or low-bit weight representation.
@@ -1015,31 +1151,31 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>EfficientQAT: Efficient Quantization-Aware Training for Large Language Models</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Mengzhao Chen, Wenqi Shao, Peng Xu, Jiahao Wang, Peng Gao, Kaipeng Zhang, Ping Luo</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.11062v3</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Large language models (LLMs) are crucial in modern natural language
 processing and artificial intelligence. However, they face challenges in
@@ -1066,31 +1202,31 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Improving Conversational Abilities of Quantized Large Language Models via Direct Preference Alignment</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Janghwan Lee, Seongmin Park, Sukjin Hong, Minsoo Kim, Du-Seong Chang, Jungwook Choi</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.03051v2</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>The rapid advancement of large language models (LLMs) has facilitated their
 transformation into conversational chatbots that can grasp contextual nuances
@@ -1109,31 +1245,31 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>"Give Me BF16 or Give Me Death"? Accuracy-Performance Trade-Offs in LLM Quantization</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Eldar Kurtic, Alexandre Marques, Shubhra Pandit, Mark Kurtz, Dan Alistarh</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2411.02355v3</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Quantization is a powerful tool for accelerating large language model (LLM)
 inference, but the accuracy-performance trade-offs across different formats
@@ -1155,31 +1291,78 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ACL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BioMistral: A Collection of Open-Source Pretrained Large Language Models for Medical Domains</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yanis Labrak, Adrien Bazoge, Emmanuel Morin, Pierre-Antoine Gourraud, Mickael Rouvier, Richard Dufour</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2402.10373v3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) have demonstrated remarkable versatility in
+recent years, offering potential applications across specialized domains such
+as healthcare and medicine. Despite the availability of various open-source
+LLMs tailored for health contexts, adapting general-purpose LLMs to the medical
+domain presents significant challenges. In this paper, we introduce BioMistral,
+an open-source LLM tailored for the biomedical domain, utilizing Mistral as its
+foundation model and further pre-trained on PubMed Central. We conduct a
+comprehensive evaluation of BioMistral on a benchmark comprising 10 established
+medical question-answering (QA) tasks in English. We also explore lightweight
+models obtained through quantization and model merging approaches. Our results
+demonstrate BioMistral's superior performance compared to existing open-source
+medical models and its competitive edge against proprietary counterparts.
+Finally, to address the limited availability of data beyond English and to
+assess the multilingual generalization of medical LLMs, we automatically
+translated and evaluated this benchmark into 7 other languages. This marks the
+first large-scale multilingual evaluation of LLMs in the medical domain.
+Datasets, multilingual evaluation benchmarks, scripts, and all the models
+obtained during our experiments are freely released.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>2023</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>ACL</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>On the Impact of Calibration Data in Post-training Quantization and Pruning</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Miles Williams, Nikolaos Aletras</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2311.09755v2</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Quantization and pruning form the foundation of compression for neural
 networks, enabling efficient inference for large language models (LLMs).
@@ -1198,31 +1381,71 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ACL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A Survey on Model Compression for Large Language Models</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Xunyu Zhu, Jian Li, Yong Liu, Can Ma, Weiping Wang</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2308.07633v4</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) have transformed natural language processing
+tasks successfully. Yet, their large size and high computational needs pose
+challenges for practical use, especially in resource-limited settings. Model
+compression has emerged as a key research area to address these challenges.
+This paper presents a survey of model compression techniques for LLMs. We cover
+methods like quantization, pruning, and knowledge distillation, highlighting
+recent advancements. We also discuss benchmarking strategies and evaluation
+metrics crucial for assessing compressed LLMs. This survey offers valuable
+insights for researchers and practitioners, aiming to enhance efficiency and
+real-world applicability of LLMs while laying a foundation for future
+advancements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Fast Matrix Multiplications for Lookup Table-Quantized LLMs</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Han Guo, William Brandon, Radostin Cholakov, Jonathan Ragan-Kelley, Eric P. Xing, Yoon Kim</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.10960v4</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>The deployment of large language models (LLMs) is often constrained by memory
 bandwidth, where the primary bottleneck is the cost of transferring model
@@ -1246,31 +1469,31 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>How Does Quantization Affect Multilingual LLMs?</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Kelly Marchisio, Saurabh Dash, Hongyu Chen, Dennis Aumiller, Ahmet Üstün, Sara Hooker, Sebastian Ruder</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.03211v2</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Quantization techniques are widely used to improve inference speed and
 deployment of large language models. While a wide body of work examines the
@@ -1290,31 +1513,31 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Prefixing Attention Sinks can Mitigate Activation Outliers for Large Language Model Quantization</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Seungwoo Son, Wonpyo Park, Woohyun Han, Kyuyeun Kim, Jaeho Lee</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2406.12016v2</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Despite recent advances in LLM quantization, activation quantization remains
 to be challenging due to the activation outliers. Conventional remedies, e.g.,
@@ -1336,31 +1559,31 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>MobileQuant: Mobile-friendly Quantization for On-device Language Models</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Fuwen Tan, Royson Lee, Łukasz Dudziak, Shell Xu Hu, Sourav Bhattacharya, Timothy Hospedales, Georgios Tzimiropoulos, Brais Martinez</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2408.13933v2</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Large language models (LLMs) have revolutionized language processing,
 delivering outstanding results across multiple applications. However, deploying
@@ -1388,31 +1611,31 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>VPTQ: Extreme Low-bit Vector Post-Training Quantization for Large Language Models</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Yifei Liu, Jicheng Wen, Yang Wang, Shengyu Ye, Li Lyna Zhang, Ting Cao, Cheng Li, Mao Yang</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2409.17066v2</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Scaling model size significantly challenges the deployment and inference of
 Large Language Models (LLMs). Due to the redundancy in LLM weights, recent
@@ -1442,31 +1665,31 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>LLMC: Benchmarking Large Language Model Quantization with a Versatile Compression Toolkit</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Ruihao Gong, Yang Yong, Shiqiao Gu, Yushi Huang, Chengtao Lv, Yunchen Zhang, Xianglong Liu, Dacheng Tao</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2405.06001v3</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Recent advancements in large language models (LLMs) are propelling us toward
 artificial general intelligence with their remarkable emergent abilities and
@@ -1489,31 +1712,31 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>RoLoRA: Fine-tuning Rotated Outlier-free LLMs for Effective Weight-Activation Quantization</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Xijie Huang, Zechun Liu, Shih-Yang Liu, Kwang-Ting Cheng</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.08044v2</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Low-Rank Adaptation (LoRA), as a representative Parameter-Efficient
 Fine-Tuning (PEFT)method, significantly enhances the training efficiency by
@@ -1536,31 +1759,126 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMNLP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Beyond Perplexity: Multi-dimensional Safety Evaluation of LLM Compression</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Zhichao Xu, Ashim Gupta, Tao Li, Oliver Bentham, Vivek Srikumar</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2407.04965v3</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Increasingly, model compression techniques enable large language models
+(LLMs) to be deployed in real-world applications. As a result of this momentum
+towards local deployment, compressed LLMs will interact with a large
+population. Prior work on compression typically prioritize preserving
+perplexity, which is directly analogous to training loss. The impact of
+compression method on other critical aspects of model behavior\, --
+\,particularly safety\, -- \,requires systematic assessment. To this end, we
+investigate the impact of model compression along four dimensions: (1)
+degeneration harm, i.e., bias and toxicity in generation; (2) representational
+harm, i.e., biases in discriminative tasks; (3) dialect bias; and(4) language
+modeling and downstream task performance. We examine a wide spectrum of LLM
+compression techniques, including unstructured pruning, semi-structured
+pruning, and quantization. Our analysis reveals that compression can lead to
+unexpected consequences. Although compression may unintentionally alleviate
+LLMs' degeneration harm, it can still exacerbate representational harm.
+Furthermore, increasing compression produces a divergent impact on different
+protected groups. Finally, different compression methods have drastically
+different safety impacts: for example, quantization mostly preserves bias while
+pruning degrades quickly. Our findings underscore the importance of integrating
+safety assessments into the development of compressed LLMs to ensure their
+reliability across real-world applications.\footnote{Our implementation and
+results are available here:
+\url{https://github.com/zhichaoxu-shufe/Beyond-Perplexity-Compression-Safety-Eval}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EMNLP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>QEFT: Quantization for Efficient Fine-Tuning of LLMs</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Changhun Lee, Jun-gyu Jin, Younghyun Cho, Eunhyeok Park</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2410.08661v1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>With the rapid growth in the use of fine-tuning for large language models
+(LLMs), optimizing fine-tuning while keeping inference efficient has become
+highly important. However, this is a challenging task as it requires
+improvements in all aspects, including inference speed, fine-tuning speed,
+memory consumption, and, most importantly, model quality. Previous studies have
+attempted to achieve this by combining quantization with fine-tuning, but they
+have failed to enhance all four aspects simultaneously. In this study, we
+propose a new lightweight technique called Quantization for Efficient
+Fine-Tuning (QEFT). QEFT accelerates both inference and fine-tuning, is
+supported by robust theoretical foundations, offers high flexibility, and
+maintains good hardware compatibility. Our extensive experiments demonstrate
+that QEFT matches the quality and versatility of full-precision
+parameter-efficient fine-tuning, while using fewer resources. Our code is
+available at https://github.com/xvyaward/qeft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>2023</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Enhancing Computation Efficiency in Large Language Models through Weight and Activation Quantization</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Janghwan Lee, Minsoo Kim, Seungcheol Baek, Seok Joong Hwang, Wonyong Sung, Jungwook Choi</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2311.05161v2</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Large Language Models (LLMs) are proficient in natural language processing
 tasks, but their deployment is often restricted by extensive parameter sizes
@@ -1582,31 +1900,31 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="33">
+      <c r="A33" t="n">
         <v>2023</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>LLM-FP4: 4-Bit Floating-Point Quantized Transformers</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Shih-yang Liu, Zechun Liu, Xijie Huang, Pingcheng Dong, Kwang-Ting Cheng</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2310.16836v1</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>We propose LLM-FP4 for quantizing both weights and activations in large
 language models (LLMs) down to 4-bit floating-point values, in a post-training
@@ -1633,31 +1951,31 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="34">
+      <c r="A34" t="n">
         <v>2023</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>EMNLP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Optimize Weight Rounding via Signed Gradient Descent for the Quantization of LLMs</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Wenhua Cheng, Weiwei Zhang, Haihao Shen, Yiyang Cai, Xin He, Kaokao Lv, Yi Liu</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2309.05516v5</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Large Language Models (LLMs) have demonstrated exceptional proficiency in
 language-related tasks, but their deployment poses significant challenges due
@@ -1677,31 +1995,118 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EMNLP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Understanding the Effect of Model Compression on Social Bias in Large Language Models</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Gustavo Gonçalves, Emma Strubell</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2312.05662v2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) trained with self-supervision on vast corpora of
+web text fit to the social biases of that text. Without intervention, these
+social biases persist in the model's predictions in downstream tasks, leading
+to representational harm. Many strategies have been proposed to mitigate the
+effects of inappropriate social biases learned during pretraining.
+Simultaneously, methods for model compression have become increasingly popular
+to reduce the computational burden of LLMs. Despite the popularity and need for
+both approaches, little work has been done to explore the interplay between
+these two. We perform a carefully controlled study of the impact of model
+compression via quantization and knowledge distillation on measures of social
+bias in LLMs. Longer pretraining and larger models led to higher social bias,
+and quantization showed a regularizer effect with its best trade-off around 20%
+of the original pretraining time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>ICLR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Compute-Optimal LLMs Provably Generalize Better With Scale</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Marc Finzi, Sanyam Kapoor, Diego Granziol, Anming Gu, Christopher De Sa, J. Zico Kolter, Andrew Gordon Wilson</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2504.15208v1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Why do larger language models generalize better? To investigate this
+question, we develop generalization bounds on the pretraining objective of
+large language models (LLMs) in the compute-optimal regime, as described by the
+Chinchilla scaling laws. We introduce a novel, fully empirical Freedman-type
+martingale concentration inequality that tightens existing bounds by accounting
+for the variance of the loss function. This generalization bound can be
+decomposed into three interpretable components: the number of parameters per
+token, the loss variance, and the quantization error at a fixed bitrate. As
+compute-optimal language models are scaled up, the number of parameters per
+data point remains constant; however, both the loss variance and the
+quantization error decrease, implying that larger models should have smaller
+generalization gaps. We examine why larger models tend to be more quantizable
+from an information theoretic perspective, showing that the rate at which they
+can integrate new information grows more slowly than their capacity on the
+compute-optimal frontier. From these findings we produce a scaling law for the
+generalization gap, with bounds that become predictably stronger with scale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ICLR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>SpinQuant: LLM quantization with learned rotations</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Zechun Liu, Changsheng Zhao, Igor Fedorov, Bilge Soran, Dhruv Choudhary, Raghuraman Krishnamoorthi, Vikas Chandra, Yuandong Tian, Tijmen Blankevoort</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2405.16406v4</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Post-training quantization (PTQ) techniques applied to weights, activations,
 and the KV cache greatly reduce memory usage, latency, and power consumption of
@@ -1725,31 +2130,31 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>ICLR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>AffineQuant: Affine Transformation Quantization for Large Language Models</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Yuexiao Ma, Huixia Li, Xiawu Zheng, Feng Ling, Xuefeng Xiao, Rui Wang, Shilei Wen, Fei Chao, Rongrong Ji</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2403.12544v1</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>The significant resource requirements associated with Large-scale Language
 Models (LLMs) have generated considerable interest in the development of
@@ -1779,31 +2184,31 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>ICLR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Catastrophic Failure of LLM Unlearning via Quantization</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Zhiwei Zhang, Fali Wang, Xiaomin Li, Zongyu Wu, Xianfeng Tang, Hui Liu, Qi He, Wenpeng Yin, Suhang Wang</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.16454v3</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Large language models (LLMs) have shown remarkable proficiency in generating
 text, benefiting from extensive training on vast textual corpora. However, LLMs
@@ -1827,31 +2232,128 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ICLR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>QERA: an Analytical Framework for Quantization Error Reconstruction</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cheng Zhang, Jeffrey T. H. Wong, Can Xiao, George A. Constantinides, Yiren Zhao</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2410.06040v2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>The growing number of parameters and computational demands of large language
+models (LLMs) present significant challenges for their efficient deployment.
+Recently, there is an increasing interest in quantizing weights to extremely
+low precision while offsetting the resulting error with low-rank,
+high-precision error reconstruction terms. The combination of quantization and
+low-rank approximation is now popular in both adapter-based,
+parameter-efficient fine-tuning methods such as LoftQ and low-precision
+inference techniques including ZeroQuant-V2. Usually, the low-rank terms are
+calculated via the singular value decomposition (SVD) of the weight
+quantization error, minimizing the Frobenius and spectral norms of the weight
+approximation error. Recent methods like LQ-LoRA and LQER introduced
+hand-crafted heuristics to minimize errors in layer outputs (activations)
+rather than weights, resulting improved quantization results. However, these
+heuristic methods lack an analytical solution to guide the design of
+quantization error reconstruction terms. In this paper, we revisit this problem
+and formulate an analytical framework, named Quantization Error Reconstruction
+Analysis (QERA), and offer a closed-form solution to the problem. We show QERA
+benefits both existing low-precision fine-tuning and inference methods -- QERA
+achieves a fine-tuned accuracy gain of $\Delta_{\text{acc}}$ = 6.05% of 2-bit
+RoBERTa-base on GLUE compared to LoftQ; and obtains $\Delta_{\text{acc}}$ =
+2.97% higher post-training quantization accuracy of 4-bit Llama-3.1-70B on
+average than ZeroQuant-V2 and $\Delta_{\text{ppl}}$ = - 0.28 lower perplexity
+on WikiText2 than LQER.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ICLR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Oh! We Freeze: Improving Quantized Knowledge Distillation via Signal Propagation Analysis for Large Language Models</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kartikeya Bhardwaj, Nilesh Prasad Pandey, Sweta Priyadarshi, Kyunggeun Lee, Jun Ma, Harris Teague</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2403.18159v2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Large generative models such as large language models (LLMs) and diffusion
+models have revolutionized the fields of NLP and computer vision respectively.
+However, their slow inference, high computation and memory requirement makes it
+challenging to deploy them on edge devices. In this study, we propose a
+light-weight quantization aware fine tuning technique using knowledge
+distillation (KD-QAT) to improve the performance of 4-bit weight quantized LLMs
+using commonly available datasets to realize a popular language use case, on
+device chat applications. To improve this paradigm of finetuning, as main
+contributions, we provide insights into stability of KD-QAT by empirically
+studying the gradient propagation during training to better understand the
+vulnerabilities of KD-QAT based approaches to low-bit quantization errors.
+Based on our insights, we propose ov-freeze, a simple technique to stabilize
+the KD-QAT process. Finally, we experiment with the popular 7B LLaMAv2-Chat
+model at 4-bit quantization level and demonstrate that ov-freeze results in
+near floating point precision performance, i.e., less than 0.7% loss of
+accuracy on Commonsense Reasoning benchmarks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>2023</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>ICLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>OmniQuant: Omnidirectionally Calibrated Quantization for Large Language Models</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Wenqi Shao, Mengzhao Chen, Zhaoyang Zhang, Peng Xu, Lirui Zhao, Zhiqian Li, Kaipeng Zhang, Peng Gao, Yu Qiao, Ping Luo</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2308.13137v3</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Large language models (LLMs) have revolutionized natural language processing
 tasks. However, their practical deployment is hindered by their immense memory
@@ -1881,31 +2383,31 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="43">
+      <c r="A43" t="n">
         <v>2023</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>ICLR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Compressing LLMs: The Truth is Rarely Pure and Never Simple</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Ajay Jaiswal, Zhe Gan, Xianzhi Du, Bowen Zhang, Zhangyang Wang, Yinfei Yang</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2310.01382v2</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Despite their remarkable achievements, modern Large Language Models (LLMs)
 face exorbitant computational and memory footprints. Recently, several works
@@ -1934,31 +2436,31 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="44">
+      <c r="A44" t="n">
         <v>2023</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>ICLR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Rethinking Channel Dimensions to Isolate Outliers for Low-bit Weight Quantization of Large Language Models</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Jung Hwan Heo, Jeonghoon Kim, Beomseok Kwon, Byeongwook Kim, Se Jung Kwon, Dongsoo Lee</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2309.15531v4</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Large Language Models (LLMs) have recently demonstrated remarkable success
 across various tasks. However, efficiently serving LLMs has been a challenge
@@ -1983,31 +2485,86 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ICLR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>QLLM: Accurate and Efficient Low-Bitwidth Quantization for Large Language Models</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Jing Liu, Ruihao Gong, Xiuying Wei, Zhiwei Dong, Jianfei Cai, Bohan Zhuang</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2310.08041v3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) excel in NLP, but their demands hinder their
+widespread deployment. While Quantization-Aware Training (QAT) offers a
+solution, its extensive training costs make Post-Training Quantization (PTQ) a
+more practical approach for LLMs. In existing studies, activation outliers in
+particular channels are identified as the bottleneck to PTQ accuracy. They
+propose to transform the magnitudes from activations to weights, which however
+offers limited alleviation or suffers from unstable gradients, resulting in a
+severe performance drop at low-bitwidth. In this paper, we propose QLLM, an
+accurate and efficient low-bitwidth PTQ method designed for LLMs. QLLM
+introduces an adaptive channel reassembly technique that reallocates the
+magnitude of outliers to other channels, thereby mitigating their impact on the
+quantization range. This is achieved by channel disassembly and channel
+assembly, which first breaks down the outlier channels into several
+sub-channels to ensure a more balanced distribution of activation magnitudes.
+Then similar channels are merged to maintain the original channel number for
+efficiency. Additionally, an adaptive strategy is designed to autonomously
+determine the optimal number of sub-channels for channel disassembly. To
+further compensate for the performance loss caused by quantization, we propose
+an efficient tuning method that only learns a small number of low-rank weights
+while freezing the pre-trained quantized model. After training, these low-rank
+parameters can be fused into the frozen weights without affecting inference.
+Extensive experiments on LLaMA-1 and LLaMA-2 show that QLLM can obtain accurate
+quantized models efficiently. For example, QLLM quantizes the 4-bit LLaMA-2-70B
+within 10 hours on a single A100-80G GPU, outperforming the previous
+state-of-the-art method by 7.89% on the average accuracy across five zero-shot
+tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
         <v>2025</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Q-resafe: Assessing Safety Risks and Quantization-aware Safety Patching for Quantized Large Language Models</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Kejia Chen, Jiawen Zhang, Jiacong Hu, Yu Wang, Jian Lou, Zunlei Feng, Mingli Song</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2506.20251v1</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Quantized large language models (LLMs) have gained increasing attention and
 significance for enabling deployment in resource-constrained environments.
@@ -2027,31 +2584,31 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="47">
+      <c r="A47" t="n">
         <v>2025</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>RoSTE: An Efficient Quantization-Aware Supervised Fine-Tuning Approach for Large Language Models</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Quan Wei, Chung-Yiu Yau, Hoi-To Wai, Yang Katie Zhao, Dongyeop Kang, Youngsuk Park, Mingyi Hong</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2502.09003v3</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Supervised fine-tuning is a standard method for adapting pre-trained large
 language models (LLMs) to downstream tasks. Quantization has been recently
@@ -2076,31 +2633,31 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="48">
+      <c r="A48" t="n">
         <v>2025</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>AWP: Activation-Aware Weight Pruning and Quantization with Projected Gradient Descent</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Jing Liu, Toshiaki Koike-Akino, Ye Wang, Hassan Mansour, Matthew Brand</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2506.10205v1</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>To address the enormous size of Large Language Models (LLMs), model
 compression methods, such as quantization and pruning, are often deployed,
@@ -2115,31 +2672,31 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="49">
+      <c r="A49" t="n">
         <v>2025</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Mind the Gap: A Practical Attack on GGUF Quantization</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Kazuki Egashira, Robin Staab, Mark Vero, Jingxuan He, Martin Vechev</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.23786v3</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>With the increasing size of frontier LLMs, post-training quantization has
 become the standard for memory-efficient deployment. Recent work has shown that
@@ -2164,31 +2721,31 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="50">
+      <c r="A50" t="n">
         <v>2025</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Radio: Rate-Distortion Optimization for Large Language Model Compression</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Sean I. Young</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.03031v1</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>In recent years, the compression of large language models (LLMs) has emerged
 as a key problem in facilitating LLM deployment on resource-limited devices,
@@ -2202,31 +2759,31 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="51">
+      <c r="A51" t="n">
         <v>2025</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Can Compressed LLMs Truly Act? An Empirical Evaluation of Agentic Capabilities in LLM Compression</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Peijie Dong, Zhenheng Tang, Xiang Liu, Lujun Li, Xiaowen Chu, Bo Li</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.19433v2</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Post-training compression reduces the computational and memory costs of large
 language models (LLMs), enabling resource-efficient deployment. However,
@@ -2249,31 +2806,31 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="52">
+      <c r="A52" t="n">
         <v>2025</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>KVTuner: Sensitivity-Aware Layer-Wise Mixed-Precision KV Cache Quantization for Efficient and Nearly Lossless LLM Inference</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Xing Li, Zeyu Xing, Yiming Li, Linping Qu, Hui-Ling Zhen, Wulong Liu, Yiwu Yao, Sinno Jialin Pan, Mingxuan Yuan</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2502.04420v4</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>KV cache quantization can improve Large Language Models (LLMs) inference
 throughput and latency in long contexts and large batch-size scenarios while
@@ -2299,31 +2856,31 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="53">
+      <c r="A53" t="n">
         <v>2025</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>BlockDialect: Block-wise Fine-grained Mixed Format Quantization for Energy-Efficient LLM Inference</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Wonsuk Jang, Thierry Tambe</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2501.01144v4</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>The rapidly increasing size of large language models (LLMs) presents
 significant challenges in memory usage and computational costs. Quantizing both
@@ -2346,31 +2903,31 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="54">
+      <c r="A54" t="n">
         <v>2025</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>CommVQ: Commutative Vector Quantization for KV Cache Compression</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Junyan Li, Yang Zhang, Muhammad Yusuf Hassan, Talha Chafekar, Tianle Cai, Zhile Ren, Pengsheng Guo, Foroozan Karimzadeh, Colorado Reed, Chong Wang, Chuang Gan</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2506.18879v1</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Large Language Models (LLMs) are increasingly used in applications requiring
 long context lengths, but the key-value (KV) cache often becomes a memory
@@ -2393,31 +2950,122 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>any4: Learned 4-bit Numeric Representation for LLMs</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mostafa Elhoushi, Jeff Johnson</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.04610v1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>We present any4, a learned 4-bit weight quantization solution for large
+language models (LLMs) providing arbitrary numeric representations without
+requiring pre-processing of weights or activations. any4 yields higher accuracy
+compared to other related 4-bit numeric representation types: int4, fp4 and
+nf4, as evaluated on a range of model sizes, generations and families (Llama 2,
+Llama 3, Mistral and Mixtral). While any4 does not require preprocessing of
+weights or activations, it is also competitive with orthogonal techniques that
+require such preprocessing (e.g., AWQ and GPTQ). We also experiment with any3
+and any2 and show competitiveness at lower bits. Additionally, we show that we
+can calibrate using a single curated diverse sample rather than hundreds of
+samples from a dataset as done in most quantization approaches. We also open
+source tinygemm, a latency optimized GPU matrix multiplication library for
+LLMs, that implements any4 using a GPU-efficient lookup table strategy along
+with other common quantization methods. We open source our code at
+https://github.com/facebookresearch/any4 .</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Demystifying Singular Defects in Large Language Models</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Haoqi Wang, Tong Zhang, Mathieu Salzmann</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2502.07004v2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Large transformer models are known to produce high-norm tokens. In vision
+transformers (ViTs), such tokens have been mathematically modeled through the
+singular vectors of the linear approximations of layers. However, in large
+language models (LLMs), the underlying causes of high-norm tokens remain
+largely unexplored, and their different properties from those of ViTs require a
+new analysis framework. In this paper, we provide both theoretical insights and
+empirical validation across a range of recent models, leading to the following
+observations: i) The layer-wise singular direction predicts the abrupt
+explosion of token norms in LLMs. ii) The negative eigenvalues of a layer
+explain its sudden decay. iii) The computational pathways leading to high-norm
+tokens differ between initial and noninitial tokens. iv) High-norm tokens are
+triggered by the right leading singular vector of the matrix approximating the
+corresponding modules. We showcase two practical applications of these
+findings: the improvement of quantization schemes and the design of LLM
+signatures. Our findings not only advance the understanding of singular defects
+in LLMs but also open new avenues for their application. We expect that this
+work will stimulate further research into the internal mechanisms of LLMs. Code
+is released at https://github.com/haoqiwang/singular_defect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Any-Precision LLM: Low-Cost Deployment of Multiple, Different-Sized LLMs</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Yeonhong Park, Jake Hyun, SangLyul Cho, Bonggeun Sim, Jae W. Lee</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2402.10517v4</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Recently, considerable efforts have been directed towards compressing Large
 Language Models (LLMs), which showcase groundbreaking capabilities across
@@ -2439,31 +3087,31 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Mamba-PTQ: Outlier Channels in Recurrent Large Language Models</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Alessandro Pierro, Steven Abreu</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.12397v1</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Modern recurrent layers are emerging as a promising path toward edge
 deployment of foundation models, especially in the context of large language
@@ -2484,31 +3132,31 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>LQER: Low-Rank Quantization Error Reconstruction for LLMs</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Cheng Zhang, Jianyi Cheng, George A. Constantinides, Yiren Zhao</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2402.02446v3</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Post-training quantization of Large Language Models (LLMs) is challenging. In
 this work, we introduce Low-rank Quantization Error Reduction (LQER), which
@@ -2527,31 +3175,31 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>FlatQuant: Flatness Matters for LLM Quantization</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Yuxuan Sun, Ruikang Liu, Haoli Bai, Han Bao, Kang Zhao, Yuening Li, Jiaxin Hu, Xianzhi Yu, Lu Hou, Chun Yuan, Xin Jiang, Wulong Liu, Jun Yao</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.09426v3</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Recently, quantization has been widely used for the compression and
 acceleration of large language models (LLMs). Due to the outliers in LLMs, it
@@ -2575,31 +3223,31 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>BoA: Attention-aware Post-training Quantization without Backpropagation</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Junhan Kim, Ho-young Kim, Eulrang Cho, Chungman Lee, Joonyoung Kim, Yongkweon Jeon</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2406.13474v3</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Post-training quantization (PTQ) is a promising solution for deploying large
 language models (LLMs) on resource-constrained devices. Early methods developed
@@ -2620,31 +3268,31 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>KIVI: A Tuning-Free Asymmetric 2bit Quantization for KV Cache</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Zirui Liu, Jiayi Yuan, Hongye Jin, Shaochen Zhong, Zhaozhuo Xu, Vladimir Braverman, Beidi Chen, Xia Hu</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2402.02750v2</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Efficiently serving large language models (LLMs) requires batching of many
 requests to reduce the cost per request. Yet, with larger batch sizes and
@@ -2671,31 +3319,31 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>ICML</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>SLiM: One-shot Quantization and Sparsity with Low-rank Approximation for LLM Weight Compression</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Mohammad Mozaffari, Amir Yazdanbakhsh, Maryam Mehri Dehnavi</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.09615v3</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Conventional model compression techniques for LLMs address high memory
 consumption and slow inference challenges but typically require computationally
@@ -2720,31 +3368,271 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Decoding Compressed Trust: Scrutinizing the Trustworthiness of Efficient LLMs Under Compression</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Junyuan Hong, Jinhao Duan, Chenhui Zhang, Zhangheng Li, Chulin Xie, Kelsey Lieberman, James Diffenderfer, Brian Bartoldson, Ajay Jaiswal, Kaidi Xu, Bhavya Kailkhura, Dan Hendrycks, Dawn Song, Zhangyang Wang, Bo Li</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2403.15447v3</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Compressing high-capability Large Language Models (LLMs) has emerged as a
+favored strategy for resource-efficient inferences. While state-of-the-art
+(SoTA) compression methods boast impressive advancements in preserving benign
+task performance, the potential risks of compression in terms of safety and
+trustworthiness have been largely neglected. This study conducts the first,
+thorough evaluation of three (3) leading LLMs using five (5) SoTA compression
+techniques across eight (8) trustworthiness dimensions. Our experiments
+highlight the intricate interplay between compression and trustworthiness,
+revealing some interesting patterns. We find that quantization is currently a
+more effective approach than pruning in achieving efficiency and
+trustworthiness simultaneously. For instance, a 4-bit quantized model retains
+the trustworthiness of its original counterpart, but model pruning
+significantly degrades trustworthiness, even at 50% sparsity. Moreover,
+employing quantization within a moderate bit range could unexpectedly improve
+certain trustworthiness dimensions such as ethics and fairness. Conversely,
+extreme quantization to very low bit levels (3 bits) tends to reduce
+trustworthiness significantly. This increased risk cannot be uncovered by
+looking at benign performance alone, in turn, mandating comprehensive
+trustworthiness evaluation in practice. These findings culminate in practical
+recommendations for simultaneously achieving high utility, efficiency, and
+trustworthiness in LLMs. Code and models are available at
+https://decoding-comp-trust.github.io.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Extreme Compression of Large Language Models via Additive Quantization</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Vage Egiazarian, Andrei Panferov, Denis Kuznedelev, Elias Frantar, Artem Babenko, Dan Alistarh</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2401.06118v4</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>The emergence of accurate open large language models (LLMs) has led to a race
+towards performant quantization techniques which can enable their execution on
+end-user devices. In this paper, we revisit the problem of "extreme" LLM
+compression-defined as targeting extremely low bit counts, such as 2 to 3 bits
+per parameter-from the point of view of classic methods in Multi-Codebook
+Quantization (MCQ). Our algorithm, called AQLM, generalizes the classic
+Additive Quantization (AQ) approach for information retrieval to advance the
+state-of-the-art in LLM compression, via two innovations: 1) learned additive
+quantization of weight matrices in input-adaptive fashion, and 2) joint
+optimization of codebook parameters across each transformer blocks. Broadly,
+AQLM is the first scheme that is Pareto optimal in terms of
+accuracy-vs-model-size when compressing to less than 3 bits per parameter, and
+significantly improves upon all known schemes in the extreme compression (2bit)
+regime. In addition, AQLM is practical: we provide fast GPU and CPU
+implementations of AQLM for token generation, which enable us to match or
+outperform optimized FP16 implementations for speed, while executing in a much
+smaller memory footprint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>QuIP#: Even Better LLM Quantization with Hadamard Incoherence and Lattice Codebooks</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Albert Tseng, Jerry Chee, Qingyao Sun, Volodymyr Kuleshov, Christopher De Sa</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2402.04396v2</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Post-training quantization (PTQ) reduces the memory footprint of LLMs by
+quantizing their weights to low-precision. In this work, we introduce QuIP#, a
+weight-only PTQ method that achieves state-of-the-art results in extreme
+compression regimes ($\le$ 4 bits per weight) using three novel techniques.
+First, QuIP# improves QuIP's (Chee et al., 2023) incoherence processing by
+using the randomized Hadamard transform, which is faster and has better
+theoretical properties. Second, QuIP# uses vector quantization to take
+advantage of the ball-shaped sub-Gaussian distribution that incoherent weights
+possess: specifically, we introduce a set of hardware-efficient codebooks based
+on the highly symmetric $E_8$ lattice, which achieves the optimal 8-dimension
+unit ball packing. Third, QuIP# uses fine-tuning to improve fidelity to the
+original model. Our experiments show that QuIP# outperforms existing PTQ
+methods, enables new behaviors in PTQ scaling, and supports fast inference. Our
+code can be found at https://github.com/Cornell-RelaxML/quip-sharp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EvoPress: Accurate Dynamic Model Compression via Evolutionary Search</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Oliver Sieberling, Denis Kuznedelev, Eldar Kurtic, Dan Alistarh</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2410.14649v2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>The high computational costs of large language models (LLMs) have led to a
+flurry of research on LLM compression, via methods such as quantization,
+sparsification, or structured pruning. A new frontier in this area is given by
+dynamic, non-uniform compression methods, which adjust the compression levels
+(e.g., sparsity) per-block or even per-layer in order to minimize accuracy
+loss, while guaranteeing a global compression threshold. Yet, current methods
+rely on estimating the importance of a given layer, implicitly assuming that
+layers contribute independently to the overall compression error. We begin from
+the motivating observation that this independence assumption does not generally
+hold for LLM compression: pruning a model further may even significantly
+recover performance. To address this, we propose EvoPress, a novel evolutionary
+framework for dynamic LLM compression. By formulating dynamic compression as a
+general optimization problem, EvoPress identifies optimal compression profiles
+in a highly efficient manner, and generalizes across diverse models and
+compression techniques. Via EvoPress, we achieve state-of-the-art performance
+for dynamic compression of Llama, Mistral, and Phi models, setting new
+benchmarks for structural pruning (block/layer dropping), unstructured
+sparsity, and quantization with dynamic bitwidths. Our code is available at
+https://github.com/IST-DASLab/EvoPress}.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ICML</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SqueezeLLM: Dense-and-Sparse Quantization</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sehoon Kim, Coleman Hooper, Amir Gholami, Zhen Dong, Xiuyu Li, Sheng Shen, Michael W. Mahoney, Kurt Keutzer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2306.07629v4</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Generative Large Language Models (LLMs) have demonstrated remarkable results
+for a wide range of tasks. However, deploying these models for inference has
+been a significant challenge due to their unprecedented resource requirements.
+This has forced existing deployment frameworks to use multi-GPU inference
+pipelines, which are often complex and costly, or to use smaller and less
+performant models. In this work, we demonstrate that the main bottleneck for
+generative inference with LLMs is memory bandwidth, rather than compute,
+specifically for single batch inference. While quantization has emerged as a
+promising solution by representing weights with reduced precision, previous
+efforts have often resulted in notable performance degradation. To address
+this, we introduce SqueezeLLM, a post-training quantization framework that not
+only enables lossless compression to ultra-low precisions of up to 3-bit, but
+also achieves higher quantization performance under the same memory constraint.
+Our framework incorporates two novel ideas: (i) sensitivity-based non-uniform
+quantization, which searches for the optimal bit precision assignment based on
+second-order information; and (ii) the Dense-and-Sparse decomposition that
+stores outliers and sensitive weight values in an efficient sparse format. When
+applied to the LLaMA models, our 3-bit quantization significantly reduces the
+perplexity gap from the FP16 baseline by up to 2.1x as compared to the
+state-of-the-art methods with the same memory requirement. Furthermore, when
+deployed on an A6000 GPU, our quantized models achieve up to 2.3x speedup
+compared to the baseline. Our code is available at
+https://github.com/SqueezeAILab/SqueezeLLM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
         <v>2025</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>IJCAI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>FBQuant: FeedBack Quantization for Large Language Models</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Yijiang Liu, Hengyu Fang, Liulu He, Rongyu Zhang, Yichuan Bai, Yuan Du, Li Du</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2501.16385v2</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Deploying Large Language Models (LLMs) on edge devices is increasingly
 important, as it eliminates reliance on network connections, reduces expensive
@@ -2767,31 +3655,77 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>IJCAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Exploring the Trade-Offs: Quantization Methods, Task Difficulty, and Model Size in Large Language Models From Edge to Giant</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Jemin Lee, Sihyeong Park, Jinse Kwon, Jihun Oh, Yongin Kwon</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2409.11055v6</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Quantization has gained attention as a promising solution for the
+cost-effective deployment of large and small language models. However, most
+prior work has been limited to perplexity or basic knowledge tasks and lacks a
+comprehensive evaluation of recent models like Llama-3.3. In this paper, we
+conduct a comprehensive evaluation of instruction-tuned models spanning 1B to
+405B parameters, applying four quantization methods across 13 datasets. Our
+findings reveal that (1) quantized models generally surpass smaller FP16
+baselines, yet they often struggle with instruction-following and hallucination
+detection; (2) FP8 consistently emerges as the most robust option across tasks,
+and AWQ tends to outperform GPTQ in weight-only quantization; (3) smaller
+models can suffer severe accuracy drops at 4-bit quantization, while 70B-scale
+models maintain stable performance; (4) notably, \textit{hard} tasks do not
+always experience the largest accuracy losses, indicating that quantization
+magnifies a model's inherent weaknesses rather than simply correlating with
+task difficulty; and (5) an LLM-based judge (MT-Bench) highlights significant
+performance declines in Coding and STEM tasks, though it occasionally reports
+improvements in reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>NeurIPS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>QuAILoRA: Quantization-Aware Initialization for LoRA</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Neal Lawton, Aishwarya Padmakumar, Judith Gaspers, Jack FitzGerald, Anoop Kumar, Greg Ver Steeg, Aram Galstyan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.14713v1</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>QLoRA reduces the memory-cost of fine-tuning a large language model (LLM)
 with LoRA by quantizing the base LLM. However, quantization introduces
@@ -2812,31 +3746,31 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>NeurIPS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>QTIP: Quantization with Trellises and Incoherence Processing</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Albert Tseng, Qingyao Sun, David Hou, Christopher De Sa</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2406.11235v4</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Post-training quantization (PTQ) reduces the memory footprint of LLMs by
 quantizing weights to low-precision datatypes. Since LLM inference is usually
@@ -2855,31 +3789,31 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>NeurIPS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>OneBit: Towards Extremely Low-bit Large Language Models</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Yuzhuang Xu, Xu Han, Zonghan Yang, Shuo Wang, Qingfu Zhu, Zhiyuan Liu, Weidong Liu, Wanxiang Che</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2402.11295v6</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Model quantification uses low bit-width values to represent the weight
 matrices of existing models to be quantized, which is a promising approach to
@@ -2899,31 +3833,31 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B54" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>NeurIPS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>KVQuant: Towards 10 Million Context Length LLM Inference with KV Cache Quantization</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Coleman Hooper, Sehoon Kim, Hiva Mohammadzadeh, Michael W. Mahoney, Yakun Sophia Shao, Kurt Keutzer, Amir Gholami</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2401.18079v6</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>LLMs are seeing growing use for applications which require large context
 windows, and with these large context windows KV cache activations surface as
@@ -2949,31 +3883,31 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>NeurIPS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Delta-CoMe: Training-Free Delta-Compression with Mixed-Precision for Large Language Models</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Bowen Ping, Shuo Wang, Hanqing Wang, Xu Han, Yuzhuang Xu, Yukun Yan, Yun Chen, Baobao Chang, Zhiyuan Liu, Maosong Sun</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2406.08903v3</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Fine-tuning is a crucial process for adapting large language models (LLMs) to
 diverse applications. In certain scenarios, such as multi-tenant serving,
@@ -2996,31 +3930,175 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NeurIPS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DuQuant: Distributing Outliers via Dual Transformation Makes Stronger Quantized LLMs</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Haokun Lin, Haobo Xu, Yichen Wu, Jingzhi Cui, Yingtao Zhang, Linzhan Mou, Linqi Song, Zhenan Sun, Ying Wei</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2406.01721v3</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Quantization of large language models (LLMs) faces significant challenges,
+particularly due to the presence of outlier activations that impede efficient
+low-bit representation. Traditional approaches predominantly address Normal
+Outliers, which are activations across all tokens with relatively large
+magnitudes. However, these methods struggle with smoothing Massive Outliers
+that display significantly larger values, which leads to significant
+performance degradation in low-bit quantization. In this paper, we introduce
+DuQuant, a novel approach that utilizes rotation and permutation
+transformations to more effectively mitigate both massive and normal outliers.
+First, DuQuant starts by constructing the rotation matrix, using specific
+outlier dimensions as prior knowledge, to redistribute outliers to adjacent
+channels by block-wise rotation. Second, We further employ a zigzag permutation
+to balance the distribution of outliers across blocks, thereby reducing
+block-wise variance. A subsequent rotation further smooths the activation
+landscape, enhancing model performance. DuQuant simplifies the quantization
+process and excels in managing outliers, outperforming the state-of-the-art
+baselines across various sizes and types of LLMs on multiple tasks, even with
+4-bit weight-activation quantization. Our code is available at
+https://github.com/Hsu1023/DuQuant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NeurIPS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Search for Efficient Large Language Models</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Xuan Shen, Pu Zhao, Yifan Gong, Zhenglun Kong, Zheng Zhan, Yushu Wu, Ming Lin, Chao Wu, Xue Lin, Yanzhi Wang</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2409.17372v2</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) have long held sway in the realms of artificial
+intelligence research. Numerous efficient techniques, including weight pruning,
+quantization, and distillation, have been embraced to compress LLMs, targeting
+memory reduction and inference acceleration, which underscore the redundancy in
+LLMs. However, most model compression techniques concentrate on weight
+optimization, overlooking the exploration of optimal architectures. Besides,
+traditional architecture search methods, limited by the elevated complexity
+with extensive parameters, struggle to demonstrate their effectiveness on LLMs.
+In this paper, we propose a training-free architecture search framework to
+identify optimal subnets that preserve the fundamental strengths of the
+original LLMs while achieving inference acceleration. Furthermore, after
+generating subnets that inherit specific weights from the original LLMs, we
+introduce a reformation algorithm that utilizes the omitted weights to rectify
+the inherited weights with a small amount of calibration data. Compared with
+SOTA training-free structured pruning works that can generate smaller networks,
+our method demonstrates superior performance across standard benchmarks.
+Furthermore, our generated subnets can directly reduce the usage of GPU memory
+and achieve inference acceleration. Code:
+https://github.com/shawnricecake/search-llm</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NeurIPS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SDP4Bit: Toward 4-bit Communication Quantization in Sharded Data Parallelism for LLM Training</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jinda Jia, Cong Xie, Hanlin Lu, Daoce Wang, Hao Feng, Chengming Zhang, Baixi Sun, Haibin Lin, Zhi Zhang, Xin Liu, Dingwen Tao</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2410.15526v2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Recent years have witnessed a clear trend towards language models with an
+ever-increasing number of parameters, as well as the growing training overhead
+and memory usage. Distributed training, particularly through Sharded Data
+Parallelism (ShardedDP) which partitions optimizer states among workers, has
+emerged as a crucial technique to mitigate training time and memory usage. Yet,
+a major challenge in the scalability of ShardedDP is the intensive
+communication of weights and gradients. While compression techniques can
+alleviate this issue, they often result in worse accuracy. Driven by this
+limitation, we propose SDP4Bit (Toward 4Bit Communication Quantization in
+Sharded Data Parallelism for LLM Training), which effectively reduces the
+communication of weights and gradients to nearly 4 bits via two novel
+techniques: quantization on weight differences, and two-level gradient smooth
+quantization. Furthermore, SDP4Bit presents an algorithm-system co-design with
+runtime optimization to minimize the computation overhead of compression. In
+addition to the theoretical guarantees of convergence, we empirically evaluate
+the accuracy of SDP4Bit on the pre-training of GPT models with up to 6.7
+billion parameters, and the results demonstrate a negligible impact on training
+loss. Furthermore, speed experiments show that SDP4Bit achieves up to
+4.08$\times$ speedup in end-to-end throughput on a scale of 128 GPUs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
         <v>2023</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>NeurIPS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Memory-Efficient Fine-Tuning of Compressed Large Language Models via sub-4-bit Integer Quantization</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Jeonghoon Kim, Jung Hyun Lee, Sungdong Kim, Joonsuk Park, Kang Min Yoo, Se Jung Kwon, Dongsoo Lee</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2305.14152v2</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Large language models (LLMs) face the challenges in fine-tuning and
 deployment due to their high memory demands and computational costs. While
@@ -3048,6 +4126,89 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NeurIPS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Efficient LLM Inference on CPUs</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Haihao Shen, Hanwen Chang, Bo Dong, Yu Luo, Hengyu Meng</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2311.00502v2</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Large language models (LLMs) have demonstrated remarkable performance and
+tremendous potential across a wide range of tasks. However, deploying these
+models has been challenging due to the astronomical amount of model parameters,
+which requires a demand for large memory capacity and high memory bandwidth. In
+this paper, we propose an effective approach that can make the deployment of
+LLMs more efficiently. We support an automatic INT4 weight-only quantization
+flow and design a special LLM runtime with highly-optimized kernels to
+accelerate the LLM inference on CPUs. We demonstrate the general applicability
+of our approach on popular LLMs including Llama2, Llama, GPT-NeoX, and showcase
+the extreme inference efficiency on CPUs. The code is publicly available at:
+https://github.com/intel/intel-extension-for-transformers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NeurIPS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mini-GPTs: Efficient Large Language Models through Contextual Pruning</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tim Valicenti, Justice Vidal, Ritik Patnaik</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2312.12682v1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>In AI research, the optimization of Large Language Models (LLMs) remains a
+significant challenge, crucial for advancing the field's practical applications
+and sustainability. Building upon the foundational work of Professor Song Han's
+lab at MIT, this paper introduces a novel approach in developing Mini-GPTs via
+contextual pruning. Our methodology strategically prunes the computational
+architecture of traditional LLMs, like Phi-1.5, focusing on retaining core
+functionalities while drastically reducing model sizes. We employ the technique
+across diverse and complex datasets, including US law, Medical Q&amp;A, Skyrim
+dialogue, English-Taiwanese translation, and Economics articles. The results
+underscore the efficiency and effectiveness of contextual pruning, not merely
+as a theoretical concept but as a practical tool in developing domain-specific,
+resource-efficient LLMs. Contextual pruning is a promising method for building
+domain-specific LLMs, and this research is a building block towards future
+development with more hardware compute, refined fine-tuning, and quantization.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
